--- a/V1/Dataset/OR60.xlsx
+++ b/V1/Dataset/OR60.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD360BA-AEA8-4026-8C01-E4D8FA84D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E9E4D-6327-4DD5-A571-5103053D102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="894">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -4691,6 +4691,156 @@
   </si>
   <si>
     <t>BHBH</t>
+  </si>
+  <si>
+    <t>Person13</t>
+  </si>
+  <si>
+    <t>Person48</t>
+  </si>
+  <si>
+    <t>Person74</t>
+  </si>
+  <si>
+    <t>Person84</t>
+  </si>
+  <si>
+    <t>Person95</t>
+  </si>
+  <si>
+    <t>Person104</t>
+  </si>
+  <si>
+    <t>Person107</t>
+  </si>
+  <si>
+    <t>Person113</t>
+  </si>
+  <si>
+    <t>Person115</t>
+  </si>
+  <si>
+    <t>Person119</t>
+  </si>
+  <si>
+    <t>Person121</t>
+  </si>
+  <si>
+    <t>Person122</t>
+  </si>
+  <si>
+    <t>Person125</t>
+  </si>
+  <si>
+    <t>Person128</t>
+  </si>
+  <si>
+    <t>Person129</t>
+  </si>
+  <si>
+    <t>Person134</t>
+  </si>
+  <si>
+    <t>Person136</t>
+  </si>
+  <si>
+    <t>Person145</t>
+  </si>
+  <si>
+    <t>Person149</t>
+  </si>
+  <si>
+    <t>Person150</t>
+  </si>
+  <si>
+    <t>Person167</t>
+  </si>
+  <si>
+    <t>Person176</t>
+  </si>
+  <si>
+    <t>Person195</t>
+  </si>
+  <si>
+    <t>Person198</t>
+  </si>
+  <si>
+    <t>Person200</t>
+  </si>
+  <si>
+    <t>Person201</t>
+  </si>
+  <si>
+    <t>Person220</t>
+  </si>
+  <si>
+    <t>Person239</t>
+  </si>
+  <si>
+    <t>Person243</t>
+  </si>
+  <si>
+    <t>Person252</t>
+  </si>
+  <si>
+    <t>Person259</t>
+  </si>
+  <si>
+    <t>Person265</t>
+  </si>
+  <si>
+    <t>Person266</t>
+  </si>
+  <si>
+    <t>Person267</t>
+  </si>
+  <si>
+    <t>Person268</t>
+  </si>
+  <si>
+    <t>Person275</t>
+  </si>
+  <si>
+    <t>Person276</t>
+  </si>
+  <si>
+    <t>Person284</t>
+  </si>
+  <si>
+    <t>Person286</t>
+  </si>
+  <si>
+    <t>Person287</t>
+  </si>
+  <si>
+    <t>Person292</t>
+  </si>
+  <si>
+    <t>Person294</t>
+  </si>
+  <si>
+    <t>Person299</t>
+  </si>
+  <si>
+    <t>Person301</t>
+  </si>
+  <si>
+    <t>Person315</t>
+  </si>
+  <si>
+    <t>Person319</t>
+  </si>
+  <si>
+    <t>Person321</t>
+  </si>
+  <si>
+    <t>Person325</t>
+  </si>
+  <si>
+    <t>Person327</t>
+  </si>
+  <si>
+    <t>Person328</t>
   </si>
 </sst>
 </file>
@@ -4996,17 +5146,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5017,6 +5161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5025,12 +5175,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5044,10 +5188,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5064,9 +5220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5089,20 +5242,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5397,108 +5547,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -5517,192 +5667,192 @@
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
@@ -5721,52 +5871,52 @@
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
@@ -5785,56 +5935,56 @@
       <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="45"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
@@ -5843,50 +5993,50 @@
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="38"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="38"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
@@ -5905,29 +6055,29 @@
       <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
@@ -5946,69 +6096,69 @@
       <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="38"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
@@ -6027,69 +6177,69 @@
       <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="38"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="38"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="38"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="38"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="38"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="28"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
@@ -6108,69 +6258,69 @@
       <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="38"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="38"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="38"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="38"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="38"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="38"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="38"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="38"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="28"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
@@ -6189,81 +6339,93 @@
       <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="38"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="38"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="38"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="38"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="38"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="38"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="38"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="28"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -6280,27 +6442,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7778,7 +7928,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -8225,8 +8375,8 @@
   <dimension ref="A1:AP330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J316" sqref="J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8278,97 +8428,97 @@
       <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="27" t="s">
         <v>818</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="27" t="s">
         <v>820</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="28" t="s">
         <v>824</v>
       </c>
-      <c r="X1" s="62" t="s">
+      <c r="X1" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="AA1" s="62" t="s">
+      <c r="AA1" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AC1" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="AD1" s="62" t="s">
+      <c r="AD1" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="AE1" s="62" t="s">
+      <c r="AE1" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="AF1" s="62" t="s">
+      <c r="AF1" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="AG1" s="62" t="s">
+      <c r="AG1" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="AH1" s="62" t="s">
+      <c r="AH1" s="28" t="s">
         <v>835</v>
       </c>
-      <c r="AI1" s="62" t="s">
+      <c r="AI1" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="AJ1" s="62" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>837</v>
       </c>
-      <c r="AK1" s="62" t="s">
+      <c r="AK1" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="AL1" s="62" t="s">
+      <c r="AL1" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="AM1" s="62" t="s">
+      <c r="AM1" s="28" t="s">
         <v>840</v>
       </c>
-      <c r="AN1" s="62" t="s">
+      <c r="AN1" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="AO1" s="62" t="s">
+      <c r="AO1" s="28" t="s">
         <v>842</v>
       </c>
-      <c r="AP1" s="62" t="s">
+      <c r="AP1" s="28" t="s">
         <v>843</v>
       </c>
     </row>
@@ -28655,10 +28805,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28701,160 +28851,2688 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="H3" s="6"/>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="H7" s="6"/>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="H10" s="6"/>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="H11" s="6"/>
+      <c r="I11" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="H12" s="6"/>
+      <c r="I12" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="H13" s="6"/>
+      <c r="I13" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="H14" s="6"/>
+      <c r="I14" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="H15" s="6"/>
+      <c r="I15" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>504</v>
+      </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>506</v>
+      </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>508</v>
+      </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>509</v>
+      </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>511</v>
+      </c>
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>512</v>
+      </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>532</v>
+      </c>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>538</v>
+      </c>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="H53" s="6"/>
+      <c r="I53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="I65" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="I66" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I68" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I69" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I70" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="I71" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I72" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="I73" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="I74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="I75" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I76" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I77" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="I78" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I79" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I80" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="I82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I83" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I84" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I85" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I86" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I88" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I89" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="I90" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I91" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I92" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="I93" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="I94" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I95" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="I96" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="I97" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I98" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I99" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I100" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="I101" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="I102" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I103" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="I104" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="I105" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="I106" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="I107" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I108" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I109" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I110" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I111" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I112" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I113" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="I114" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="I115" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="I116" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I117" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I118" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I119" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="I120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I121" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="I122" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="I123" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="I124" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I125" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="I126" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I127" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="I128" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="I129" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="I130" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I131" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="I132" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I133" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="I134" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I135" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I136" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="I137" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I138" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="I139" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="I140" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="I141" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="I142" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I143" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="I144" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I145" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="I146" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="I147" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I148" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="I149" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I150" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I151" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="I152" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="I153" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I154" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="I155" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I156" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="I157" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="I158" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I159" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I160" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I161" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I162" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I163" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="I164" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I165" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I166" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I167" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="I168" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="I169" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I170" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I171" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="I172" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I173" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I174" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I175" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I176" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="I177" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="I178" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I179" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I180" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I181" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I182" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I183" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="I184" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I185" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I186" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I187" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="I188" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="I189" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="I190" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I191" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="I192" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I193" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="I194" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="I195" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="I196" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="I197" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I198" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="I199" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="I200" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="I201" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="I202" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="I203" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="I204" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="I205" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I206" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="I207" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I208" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="I209" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="I210" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I211" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="I212" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="I213" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="I214" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="I215" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="I216" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="I217" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="I218" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="I219" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="I220" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I221" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="I222" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="I223" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="I224" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="I225" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="I226" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I227" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I228" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="I229" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="I230" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="I231" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="I232" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="I233" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="I234" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I235" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="I236" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="I237" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I238" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I239" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="I240" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="I241" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="I242" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I243" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I244" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I245" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I246" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="I247" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="I248" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="I249" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="I250" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I251" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="I252" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="I253" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I254" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I255" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="I256" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I257" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="I258" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="I259" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I260" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I261" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="I262" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I263" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="I264" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I265" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="I266" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="I267" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="I268" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I269" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I270" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="I271" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="I272" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I273" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I274" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="I275" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I276" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="I277" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="I278" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="I279" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="I280" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="I281" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="I282" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I283" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="I284" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I285" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I286" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="I287" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="I288" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I289" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="I290" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I291" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I292" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I293" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="I294" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I295" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="I296" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="I297" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="I298" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="I299" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I300" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I301" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I302" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I303" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="I304" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="I305" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="I306" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I307" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="I308" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="I309" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I310" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I311" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="I312" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I313" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I314" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I315" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I316" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="I317" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="I318" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="I319" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I320" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="I321" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I322" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I323" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="I324" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="I325" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="I326" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I327" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I328" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I329" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="I330" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/V1/Dataset/OR60.xlsx
+++ b/V1/Dataset/OR60.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A42ABFB-7E0A-43F3-B2E8-EE680B6EE006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E50D245-AE36-4C4B-9A56-8B0FCEFC187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -5146,18 +5146,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5167,6 +5155,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5175,12 +5169,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5194,10 +5182,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5214,9 +5214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5239,14 +5236,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5615,7 +5615,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="50"/>
@@ -5638,347 +5638,347 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
@@ -5987,427 +5987,439 @@
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="40"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="40"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="40"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="40"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="40"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="30"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="30"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="38"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="38"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="40"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="40"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="40"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="40"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="40"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="30"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -6424,27 +6436,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8063,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8117,7 +8117,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -8131,7 +8131,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -8145,7 +8145,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="24">
-        <v>4</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -8153,7 +8153,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="24">
-        <v>5</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -8161,7 +8161,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="24">
-        <v>6</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -8169,7 +8169,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -8177,7 +8177,7 @@
         <v>95</v>
       </c>
       <c r="E9" s="24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -8185,7 +8185,7 @@
         <v>111</v>
       </c>
       <c r="E10" s="24">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -8193,7 +8193,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="24">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -8201,7 +8201,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="24">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -8209,7 +8209,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="24">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -8217,7 +8217,7 @@
         <v>61</v>
       </c>
       <c r="E14" s="24">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -8225,7 +8225,7 @@
         <v>62</v>
       </c>
       <c r="E15" s="24">
-        <v>14</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -8233,7 +8233,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="24">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
@@ -8241,7 +8241,7 @@
         <v>84</v>
       </c>
       <c r="E17" s="24">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
@@ -8249,7 +8249,7 @@
         <v>92</v>
       </c>
       <c r="E18" s="24">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
@@ -8257,7 +8257,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="24">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
@@ -8265,7 +8265,7 @@
         <v>99</v>
       </c>
       <c r="E20" s="24">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
@@ -8273,7 +8273,7 @@
         <v>100</v>
       </c>
       <c r="E21" s="24">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.3">
@@ -8281,7 +8281,7 @@
         <v>104</v>
       </c>
       <c r="E22" s="24">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.3">
@@ -8289,7 +8289,7 @@
         <v>105</v>
       </c>
       <c r="E23" s="24">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.3">
@@ -8297,7 +8297,7 @@
         <v>102</v>
       </c>
       <c r="E24" s="24">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
@@ -8305,7 +8305,7 @@
         <v>103</v>
       </c>
       <c r="E25" s="24">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
@@ -8313,7 +8313,7 @@
         <v>106</v>
       </c>
       <c r="E26" s="24">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.3">
@@ -8321,7 +8321,7 @@
         <v>107</v>
       </c>
       <c r="E27" s="24">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.3">
@@ -8329,7 +8329,7 @@
         <v>108</v>
       </c>
       <c r="E28" s="24">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.3">
@@ -8337,7 +8337,7 @@
         <v>109</v>
       </c>
       <c r="E29" s="24">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
